--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\Documents\UiPath\GenrateYearlyReportForVendorPerformer\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA755280-7A17-4394-9C8B-ECAB47553AC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E1833C3-0FE7-4247-B824-2E9AA9817360}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29580" yWindow="3105" windowWidth="14400" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29655" yWindow="420" windowWidth="13530" windowHeight="10065" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="55">
   <si>
     <t>Name</t>
   </si>
@@ -183,19 +183,13 @@
     <t>Report_Directory</t>
   </si>
   <si>
-    <t>ACME_System1_DownloadMonthlyReport_URL</t>
-  </si>
-  <si>
-    <t>ACME_System1_UploadYearlyReport_URL</t>
-  </si>
-  <si>
-    <t>ACME_System1_UpdateingWorkItems_URL</t>
-  </si>
-  <si>
     <t>Status</t>
   </si>
   <si>
     <t>Completed</t>
+  </si>
+  <si>
+    <t>C:\Users\Owner\Documents\UiPath\GenrateYearlyReportForVendorPerformer\Data\Output</t>
   </si>
 </sst>
 </file>
@@ -581,10 +575,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z998"/>
+  <dimension ref="A1:Z995"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -689,30 +683,21 @@
       <c r="A9" t="s">
         <v>51</v>
       </c>
+      <c r="B9" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="10" spans="1:26" ht="14.25" customHeight="1">
       <c r="A10" t="s">
         <v>52</v>
       </c>
+      <c r="B10" t="s">
+        <v>53</v>
+      </c>
     </row>
-    <row r="11" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A11" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="12" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A12" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="13" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A13" t="s">
-        <v>55</v>
-      </c>
-      <c r="B13" t="s">
-        <v>56</v>
-      </c>
-    </row>
+    <row r="11" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="12" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="13" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="14" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="15" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="16" spans="1:26" ht="14.25" customHeight="1"/>
@@ -1695,9 +1680,6 @@
     <row r="993" ht="14.25" customHeight="1"/>
     <row r="994" ht="14.25" customHeight="1"/>
     <row r="995" ht="14.25" customHeight="1"/>
-    <row r="996" ht="14.25" customHeight="1"/>
-    <row r="997" ht="14.25" customHeight="1"/>
-    <row r="998" ht="14.25" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="2"/>
   <hyperlinks>

--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\Documents\UiPath\GenrateYearlyReportForVendorPerformer\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E1833C3-0FE7-4247-B824-2E9AA9817360}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{099E70F0-3E1D-46A6-8B1A-895A2F0CFD8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29655" yWindow="420" windowWidth="13530" windowHeight="10065" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28245" yWindow="1890" windowWidth="19140" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -189,7 +189,7 @@
     <t>Completed</t>
   </si>
   <si>
-    <t>C:\Users\Owner\Documents\UiPath\GenrateYearlyReportForVendorPerformer\Data\Output</t>
+    <t>C:\Users\Owner\Documents\UiPath\GenrateYearlyReportForVendorPerformer\Data\Output\</t>
   </si>
 </sst>
 </file>
@@ -578,7 +578,7 @@
   <dimension ref="A1:Z995"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
